--- a/docs/Gestion du Projet.xlsx
+++ b/docs/Gestion du Projet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Fonctionalités</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>Import de la Base de Données et vérification des relations</t>
+  </si>
+  <si>
+    <t>Module Tickets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +143,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +173,11 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,29 +188,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Insatisfaisant" xfId="5" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
@@ -508,7 +525,7 @@
   <dimension ref="B1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -520,19 +537,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -543,11 +560,11 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
@@ -556,7 +573,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -567,7 +584,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -578,8 +595,8 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
+      <c r="D8" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -589,8 +606,8 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
+      <c r="D9" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -600,19 +617,19 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
+      <c r="D10" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
@@ -621,7 +638,7 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>0</v>
       </c>
     </row>
@@ -632,7 +649,7 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
     </row>
@@ -643,8 +660,8 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
+      <c r="D15" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -654,7 +671,7 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
     </row>
@@ -665,7 +682,7 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -676,7 +693,7 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
     </row>
@@ -687,17 +704,25 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="D20" s="1"/>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">

--- a/docs/Gestion du Projet.xlsx
+++ b/docs/Gestion du Projet.xlsx
@@ -39,9 +39,6 @@
     <t>Module Disponibilités</t>
   </si>
   <si>
-    <t>Modules Pages Web</t>
-  </si>
-  <si>
     <t>Module Forum (catégorie, sujet, message)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Module Tickets</t>
+  </si>
+  <si>
+    <t>Module Recrutement</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
@@ -205,10 +205,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -524,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -537,23 +538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -561,7 +562,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -571,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -579,10 +580,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -590,10 +591,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -601,10 +602,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>0.5</v>
@@ -612,10 +613,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -626,7 +627,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -636,9 +637,9 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
         <v>0</v>
       </c>
     </row>
@@ -647,9 +648,9 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -658,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
         <v>0.2</v>
@@ -669,9 +670,9 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -680,9 +681,9 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
     </row>
@@ -691,20 +692,20 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0</v>
       </c>
     </row>
@@ -713,9 +714,9 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -726,10 +727,10 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
       </c>
       <c r="D22" s="1"/>
     </row>

--- a/docs/Gestion du Projet.xlsx
+++ b/docs/Gestion du Projet.xlsx
@@ -206,10 +206,10 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -526,7 +526,7 @@
   <dimension ref="B1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -538,16 +538,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
@@ -639,8 +639,8 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
+      <c r="D13" s="7">
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -650,8 +650,8 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
+      <c r="D14" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -716,7 +716,7 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0</v>
       </c>
     </row>
@@ -732,7 +732,9 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="2:4">
       <c r="D23" s="1"/>
